--- a/lesson_2_working_with_data_from_different_tables/lesson_2_working_with_data_from_different_tables.xlsx
+++ b/lesson_2_working_with_data_from_different_tables/lesson_2_working_with_data_from_different_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\development\gb\first_quarter\introduction_to_databases_seminars\introduction_to_databases_seminars_tasks\lesson_2_working_with_data_from_different_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF803F-211D-4DB7-8378-29BD029AB18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94315691-8CC6-423A-A5AC-2B9C155C266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="3" xr2:uid="{C570DDCF-59B6-46A3-B8FB-E415ADF6DC74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" tabRatio="748" firstSheet="7" activeTab="17" xr2:uid="{C570DDCF-59B6-46A3-B8FB-E415ADF6DC74}"/>
   </bookViews>
   <sheets>
     <sheet name="task 1.1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="task 2.6" sheetId="14" r:id="rId14"/>
     <sheet name="task 2.7" sheetId="15" r:id="rId15"/>
     <sheet name="task 2.8" sheetId="16" r:id="rId16"/>
+    <sheet name="task 3.1" sheetId="17" r:id="rId17"/>
+    <sheet name="task 3.2" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="101">
   <si>
     <t>12.02.1990</t>
   </si>
@@ -1283,6 +1285,184 @@
       <t xml:space="preserve">  id = Whose address</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Full name, Phone, Comments </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> People </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LEFT JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phone numbers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id = Whose phone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Full name, Addresses, Comments </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> People </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RIGHT JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Addresses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id = Whose address</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1378,7 +1558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1394,6 +1574,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2347,12 +2529,6 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="D14:E14"/>
@@ -2377,6 +2553,10 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
@@ -2390,15 +2570,17 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -9732,6 +9914,1737 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2338BA8B-A626-4F88-B911-8DC8091D38A5}">
+  <dimension ref="B2:O36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J9" s="4">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="J12" s="4">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="J13" s="4">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="J14" s="4">
+        <v>12</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="J15" s="4">
+        <v>13</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="J16" s="4">
+        <v>14</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="J17" s="4">
+        <v>15</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="134">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263F045-361D-40F6-BF94-909F0CA957CB}">
+  <dimension ref="B2:O39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J9" s="4">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="J12" s="4">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="J13" s="4">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="J14" s="4">
+        <v>12</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="J15" s="4">
+        <v>13</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="J16" s="4">
+        <v>14</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="J17" s="4">
+        <v>15</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4">
+        <v>4</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4">
+        <v>5</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4">
+        <v>6</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4">
+        <v>7</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4">
+        <v>9</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="157">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0E6D77-E1AA-4476-BF26-5884F2D2F5EE}">
   <dimension ref="B2:O32"/>
@@ -11154,7 +13067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF571A4B-1FEE-43CA-8118-D5028B9E28C3}">
   <dimension ref="B2:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17:I17"/>
     </sheetView>
   </sheetViews>
@@ -11708,6 +13621,13 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
@@ -11722,13 +13642,6 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14980,9 +16893,10 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
@@ -14995,6 +16909,21 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D11:E11"/>
@@ -15013,22 +16942,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
